--- a/results_exact/34_transbordo_porto.xlsx
+++ b/results_exact/34_transbordo_porto.xlsx
@@ -444,29 +444,29 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
+          <t>IPAMERI,GO, Brazil</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -476,29 +476,29 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1290727.649507226</v>
+        <v>178404.652</v>
       </c>
       <c r="E2" t="n">
-        <v>465403.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IPAMERI,GO, Brazil</t>
+          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>465403.44</v>
       </c>
       <c r="C3" t="n">
-        <v>178404.652</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128100.7230079457</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1628912.04</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325779.0720000003</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>65168.59350722612</v>
+        <v>325779.0719999991</v>
       </c>
       <c r="D4" t="n">
-        <v>338184.3904927737</v>
+        <v>403352.984000001</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -523,14 +523,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RIO VERDE, GO, Brazil</t>
+          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2831204.26</v>
+        <v>294755.512</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -542,17 +542,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SÃO SIMÃO, GO, Brazil</t>
+          <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>736888.7800000001</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2831204.26</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -580,17 +580,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
+          <t>SÃO SIMÃO, GO, Brazil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>294755.512</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>736888.7800000001</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -645,35 +645,35 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>220211044.2824279</v>
+        <v>14994911.0006</v>
       </c>
       <c r="D2" t="n">
-        <v>79402480.89840001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>51664435.8744</v>
       </c>
       <c r="B3" t="n">
-        <v>20860855.95836001</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17840587.6933166</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>178659072.5472</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55581167.47392005</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>11118413.73826785</v>
+        <v>47997030.67775987</v>
       </c>
       <c r="C4" t="n">
-        <v>57697638.86197213</v>
+        <v>52823106.78464013</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>331052714.1218001</v>
+        <v>36322721.74376</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>68059047.72080001</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>265623583.6732</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50288237.90232001</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>60159599.99920001</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -757,22 +757,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -784,35 +784,35 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>35009438619.70411</v>
+        <v>3328602635.1552</v>
       </c>
       <c r="D2" t="n">
-        <v>12827612504.484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>12827612504.484</v>
       </c>
       <c r="B3" t="n">
-        <v>3328602635.1552</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4726189066.886511</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>44182284390.552</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12887109889.94305</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>2225554389.659097</v>
+        <v>12887109889.943</v>
       </c>
       <c r="C4" t="n">
-        <v>10100688464.60387</v>
+        <v>13774794817.74851</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>61963028633.29501</v>
+        <v>9313616874.408241</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>13158070277.875</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>61963028633.295</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9313616874.408241</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>13158070277.875</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1434733769.006296</v>
+        <v>1254716706.325245</v>
       </c>
       <c r="B2" t="n">
-        <v>149555970479549.2</v>
+        <v>145383286025361.8</v>
       </c>
     </row>
   </sheetData>
